--- a/Feature_list.xlsx
+++ b/Feature_list.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ll/Documents/MATLAB/Fusion_static_dynamic/acmtf_simulated_real/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ll/Documents/GitHub/Joint analysis of static and dynamic metabolomics data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74614E9-29A4-0E47-A395-1A1F2533C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BE2A5-CA0E-E949-855C-A1EFB5A20F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="18800" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="17200" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="336">
   <si>
     <t>Biomarker</t>
   </si>
@@ -65,9 +66,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Total_C</t>
-  </si>
-  <si>
     <t>Total Cholesterol</t>
   </si>
   <si>
@@ -77,201 +75,108 @@
     <t>Cholesterol</t>
   </si>
   <si>
-    <t>non_HDL_C</t>
-  </si>
-  <si>
-    <t>Total Cholesterol Minus HDL-C</t>
-  </si>
-  <si>
-    <t>Remnant_C</t>
-  </si>
-  <si>
     <t>Remnant Cholesterol (Non-HDL, Non-LDL -Cholesterol)</t>
   </si>
   <si>
-    <t>VLDL_C</t>
-  </si>
-  <si>
     <t>VLDL Cholesterol</t>
   </si>
   <si>
-    <t>LDL_C</t>
-  </si>
-  <si>
     <t>LDL Cholesterol</t>
   </si>
   <si>
-    <t>HDL_C</t>
-  </si>
-  <si>
     <t>HDL Cholesterol</t>
   </si>
   <si>
-    <t>Total_TG</t>
-  </si>
-  <si>
     <t>Total Triglycerides</t>
   </si>
   <si>
     <t>Triglycerides</t>
   </si>
   <si>
-    <t>VLDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in VLDL</t>
   </si>
   <si>
-    <t>LDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in LDL</t>
   </si>
   <si>
-    <t>HDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in HDL</t>
   </si>
   <si>
-    <t>Total_PL</t>
-  </si>
-  <si>
     <t>Total Phospholipids in Lipoprotein Particles</t>
   </si>
   <si>
     <t>Phospholipids</t>
   </si>
   <si>
-    <t>VLDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in VLDL</t>
   </si>
   <si>
-    <t>LDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in LDL</t>
   </si>
   <si>
-    <t>HDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in HDL</t>
   </si>
   <si>
-    <t>Total_CE</t>
-  </si>
-  <si>
     <t>Total Esterified Cholesterol</t>
   </si>
   <si>
     <t>Cholesteryl esters</t>
   </si>
   <si>
-    <t>VLDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in VLDL</t>
   </si>
   <si>
-    <t>LDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in LDL</t>
   </si>
   <si>
-    <t>HDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in HDL</t>
   </si>
   <si>
-    <t>Total_FC</t>
-  </si>
-  <si>
     <t>Total Free Cholesterol</t>
   </si>
   <si>
     <t>Free cholesterol</t>
   </si>
   <si>
-    <t>VLDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in VLDL</t>
   </si>
   <si>
-    <t>LDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in LDL</t>
   </si>
   <si>
-    <t>HDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in HDL</t>
   </si>
   <si>
-    <t>Total_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Lipoprotein Particles</t>
   </si>
   <si>
     <t>Total lipids</t>
   </si>
   <si>
-    <t>VLDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in VLDL</t>
   </si>
   <si>
-    <t>LDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in LDL</t>
   </si>
   <si>
-    <t>HDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in HDL</t>
   </si>
   <si>
-    <t>Total_P</t>
-  </si>
-  <si>
     <t>Total Concentration of Lipoprotein Particles</t>
   </si>
   <si>
     <t>Lipoprotein particle concentrations</t>
   </si>
   <si>
-    <t>VLDL_P</t>
-  </si>
-  <si>
     <t>Concentration of VLDL Particles</t>
   </si>
   <si>
-    <t>LDL_P</t>
-  </si>
-  <si>
     <t>Concentration of LDL Particles</t>
   </si>
   <si>
-    <t>HDL_P</t>
-  </si>
-  <si>
     <t>Concentration of HDL Particles</t>
   </si>
   <si>
-    <t>VLDL_size</t>
-  </si>
-  <si>
     <t>Average Diameter for VLDL Particles</t>
   </si>
   <si>
@@ -281,15 +186,9 @@
     <t>Lipoprotein particle sizes</t>
   </si>
   <si>
-    <t>LDL_size</t>
-  </si>
-  <si>
     <t>Average Diameter for LDL Particles</t>
   </si>
   <si>
-    <t>HDL_size</t>
-  </si>
-  <si>
     <t>Average Diameter for HDL Particles</t>
   </si>
   <si>
@@ -311,9 +210,6 @@
     <t>Apolipoprotein A1</t>
   </si>
   <si>
-    <t>Total_FA</t>
-  </si>
-  <si>
     <t>Total Fatty Acids</t>
   </si>
   <si>
@@ -329,15 +225,9 @@
     <t>degree</t>
   </si>
   <si>
-    <t>Omega_3</t>
-  </si>
-  <si>
     <t>Omega-3 Fatty Acids</t>
   </si>
   <si>
-    <t>Omega_6</t>
-  </si>
-  <si>
     <t>Omega-6 Fatty Acids</t>
   </si>
   <si>
@@ -398,9 +288,6 @@
     <t>Histidine</t>
   </si>
   <si>
-    <t>Total_BCAA</t>
-  </si>
-  <si>
     <t>Total Concentration of Branched-Chain Amino Acids (Leucine + Isoleucine + Valine)</t>
   </si>
   <si>
@@ -422,12 +309,6 @@
     <t>Valine</t>
   </si>
   <si>
-    <t>Phe</t>
-  </si>
-  <si>
-    <t>Phenylalanine</t>
-  </si>
-  <si>
     <t>Tyr</t>
   </si>
   <si>
@@ -476,595 +357,709 @@
     <t>Inflammation</t>
   </si>
   <si>
-    <t>XXL_VLDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Chylomicrons and Extremely Large VLDL Particles</t>
   </si>
   <si>
     <t>Lipoprotein subclasses</t>
   </si>
   <si>
-    <t>XXL_VLDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Chylomicrons and Extremely Large VLDL</t>
   </si>
   <si>
-    <t>XXL_VLDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Chylomicrons and Extremely Large VLDL</t>
   </si>
   <si>
-    <t>XXL_VLDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Chylomicrons and Extremely Large VLDL</t>
   </si>
   <si>
-    <t>XXL_VLDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Chylomicrons and Extremely Large VLDL</t>
   </si>
   <si>
-    <t>XXL_VLDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Chylomicrons and Extremely Large VLDL</t>
   </si>
   <si>
-    <t>XXL_VLDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Chylomicrons and Extremely Large VLDL</t>
   </si>
   <si>
-    <t>XL_VLDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Very Large VLDL Particles</t>
   </si>
   <si>
-    <t>XL_VLDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Very Large VLDL</t>
   </si>
   <si>
-    <t>XL_VLDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Very Large VLDL</t>
   </si>
   <si>
-    <t>XL_VLDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Very Large VLDL</t>
   </si>
   <si>
-    <t>XL_VLDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Very Large VLDL</t>
   </si>
   <si>
-    <t>XL_VLDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Very Large VLDL</t>
   </si>
   <si>
-    <t>XL_VLDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Very Large VLDL</t>
   </si>
   <si>
-    <t>L_VLDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Large VLDL Particles</t>
   </si>
   <si>
-    <t>L_VLDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Large VLDL</t>
   </si>
   <si>
-    <t>L_VLDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Large VLDL</t>
   </si>
   <si>
-    <t>L_VLDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Large VLDL</t>
   </si>
   <si>
-    <t>L_VLDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Large VLDL</t>
   </si>
   <si>
-    <t>L_VLDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Large VLDL</t>
   </si>
   <si>
-    <t>L_VLDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Large VLDL</t>
   </si>
   <si>
-    <t>M_VLDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Medium VLDL Particles</t>
   </si>
   <si>
-    <t>M_VLDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Medium VLDL</t>
   </si>
   <si>
-    <t>M_VLDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Medium VLDL</t>
   </si>
   <si>
-    <t>M_VLDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Medium VLDL</t>
   </si>
   <si>
-    <t>M_VLDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Medium VLDL</t>
   </si>
   <si>
-    <t>M_VLDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Medium VLDL</t>
   </si>
   <si>
-    <t>M_VLDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Medium VLDL</t>
   </si>
   <si>
-    <t>S_VLDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Small VLDL Particles</t>
   </si>
   <si>
-    <t>S_VLDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Small VLDL</t>
   </si>
   <si>
-    <t>S_VLDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Small VLDL</t>
   </si>
   <si>
-    <t>S_VLDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Small VLDL</t>
   </si>
   <si>
-    <t>S_VLDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Small VLDL</t>
   </si>
   <si>
-    <t>S_VLDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Small VLDL</t>
   </si>
   <si>
-    <t>S_VLDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Small VLDL</t>
   </si>
   <si>
-    <t>XS_VLDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Very Small VLDL Particles</t>
   </si>
   <si>
-    <t>XS_VLDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Very Small VLDL</t>
   </si>
   <si>
-    <t>XS_VLDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Very Small VLDL</t>
   </si>
   <si>
-    <t>XS_VLDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Very Small VLDL</t>
   </si>
   <si>
-    <t>XS_VLDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Very Small VLDL</t>
   </si>
   <si>
-    <t>XS_VLDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Very Small VLDL</t>
   </si>
   <si>
-    <t>XS_VLDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Very Small VLDL</t>
   </si>
   <si>
-    <t>IDL_P</t>
-  </si>
-  <si>
     <t>Concentration of IDL Particles</t>
   </si>
   <si>
-    <t>IDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in IDL</t>
   </si>
   <si>
-    <t>IDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in IDL</t>
   </si>
   <si>
-    <t>IDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in IDL</t>
   </si>
   <si>
-    <t>IDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in IDL</t>
   </si>
   <si>
-    <t>IDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in IDL</t>
   </si>
   <si>
-    <t>IDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in IDL</t>
   </si>
   <si>
-    <t>L_LDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Large LDL Particles</t>
   </si>
   <si>
-    <t>L_LDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Large LDL</t>
   </si>
   <si>
-    <t>L_LDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Large LDL</t>
   </si>
   <si>
-    <t>L_LDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Large LDL</t>
   </si>
   <si>
-    <t>L_LDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Large LDL</t>
   </si>
   <si>
-    <t>L_LDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Large LDL</t>
   </si>
   <si>
-    <t>L_LDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Large LDL</t>
   </si>
   <si>
-    <t>M_LDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Medium LDL Particles</t>
   </si>
   <si>
-    <t>M_LDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Medium LDL</t>
   </si>
   <si>
-    <t>M_LDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Medium LDL</t>
   </si>
   <si>
-    <t>M_LDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Medium LDL</t>
   </si>
   <si>
-    <t>M_LDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Medium LDL</t>
   </si>
   <si>
-    <t>M_LDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Medium LDL</t>
   </si>
   <si>
-    <t>M_LDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Medium LDL</t>
   </si>
   <si>
-    <t>S_LDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Small LDL Particles</t>
   </si>
   <si>
-    <t>S_LDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Small LDL</t>
   </si>
   <si>
-    <t>S_LDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Small LDL</t>
   </si>
   <si>
-    <t>S_LDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Small LDL</t>
   </si>
   <si>
-    <t>S_LDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Small LDL</t>
   </si>
   <si>
-    <t>S_LDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Small LDL</t>
   </si>
   <si>
-    <t>S_LDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Small LDL</t>
   </si>
   <si>
-    <t>XL_HDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Very Large HDL Particles</t>
   </si>
   <si>
-    <t>XL_HDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Very Large HDL</t>
   </si>
   <si>
-    <t>XL_HDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Very Large HDL</t>
   </si>
   <si>
-    <t>XL_HDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Very Large HDL</t>
   </si>
   <si>
-    <t>XL_HDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Very Large HDL</t>
   </si>
   <si>
-    <t>XL_HDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Very Large HDL</t>
   </si>
   <si>
-    <t>XL_HDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Very Large HDL</t>
   </si>
   <si>
-    <t>L_HDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Large HDL Particles</t>
   </si>
   <si>
-    <t>L_HDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Large HDL</t>
   </si>
   <si>
-    <t>L_HDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Large HDL</t>
   </si>
   <si>
-    <t>L_HDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Large HDL</t>
   </si>
   <si>
-    <t>L_HDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Large HDL</t>
   </si>
   <si>
-    <t>L_HDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Large HDL</t>
   </si>
   <si>
-    <t>L_HDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Large HDL</t>
   </si>
   <si>
-    <t>M_HDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Medium HDL Particles</t>
   </si>
   <si>
-    <t>M_HDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Medium HDL</t>
   </si>
   <si>
-    <t>M_HDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Medium HDL</t>
   </si>
   <si>
-    <t>M_HDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Medium HDL</t>
   </si>
   <si>
-    <t>M_HDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Medium HDL</t>
   </si>
   <si>
-    <t>M_HDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Medium HDL</t>
   </si>
   <si>
-    <t>M_HDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Medium HDL</t>
   </si>
   <si>
-    <t>S_HDL_P</t>
-  </si>
-  <si>
     <t>Concentration of Small HDL Particles</t>
   </si>
   <si>
-    <t>S_HDL_L</t>
-  </si>
-  <si>
     <t>Total Lipids in Small HDL</t>
   </si>
   <si>
-    <t>S_HDL_PL</t>
-  </si>
-  <si>
     <t>Phospholipids in Small HDL</t>
   </si>
   <si>
-    <t>S_HDL_C</t>
-  </si>
-  <si>
     <t>Cholesterol in Small HDL</t>
   </si>
   <si>
-    <t>S_HDL_CE</t>
-  </si>
-  <si>
     <t>Cholesteryl Esters in Small HDL</t>
   </si>
   <si>
-    <t>S_HDL_FC</t>
-  </si>
-  <si>
     <t>Free Cholesterol in Small HDL</t>
   </si>
   <si>
-    <t>S_HDL_TG</t>
-  </si>
-  <si>
     <t>Triglycerides in Small HDL</t>
+  </si>
+  <si>
+    <t>Total-C</t>
+  </si>
+  <si>
+    <t>Remnant-C</t>
+  </si>
+  <si>
+    <t>VLDL-C</t>
+  </si>
+  <si>
+    <t>LDL-C</t>
+  </si>
+  <si>
+    <t>HDL-C</t>
+  </si>
+  <si>
+    <t>Total-TG</t>
+  </si>
+  <si>
+    <t>VLDL-TG</t>
+  </si>
+  <si>
+    <t>LDL-TG</t>
+  </si>
+  <si>
+    <t>HDL-TG</t>
+  </si>
+  <si>
+    <t>Total-PL</t>
+  </si>
+  <si>
+    <t>VLDL-PL</t>
+  </si>
+  <si>
+    <t>LDL-PL</t>
+  </si>
+  <si>
+    <t>HDL-PL</t>
+  </si>
+  <si>
+    <t>Total-CE</t>
+  </si>
+  <si>
+    <t>VLDL-CE</t>
+  </si>
+  <si>
+    <t>LDL-CE</t>
+  </si>
+  <si>
+    <t>HDL-CE</t>
+  </si>
+  <si>
+    <t>Total-FC</t>
+  </si>
+  <si>
+    <t>VLDL-FC</t>
+  </si>
+  <si>
+    <t>LDL-FC</t>
+  </si>
+  <si>
+    <t>HDL-FC</t>
+  </si>
+  <si>
+    <t>Total-L</t>
+  </si>
+  <si>
+    <t>VLDL-L</t>
+  </si>
+  <si>
+    <t>LDL-L</t>
+  </si>
+  <si>
+    <t>HDL-L</t>
+  </si>
+  <si>
+    <t>Total-P</t>
+  </si>
+  <si>
+    <t>VLDL-P</t>
+  </si>
+  <si>
+    <t>LDL-P</t>
+  </si>
+  <si>
+    <t>HDL-P</t>
+  </si>
+  <si>
+    <t>Total-FA</t>
+  </si>
+  <si>
+    <t>Omega-3</t>
+  </si>
+  <si>
+    <t>Omega-6</t>
+  </si>
+  <si>
+    <t>Total-BCAA</t>
+  </si>
+  <si>
+    <t>XXL-VLDL-P</t>
+  </si>
+  <si>
+    <t>XXL-VLDL-L</t>
+  </si>
+  <si>
+    <t>XXL-VLDL-PL</t>
+  </si>
+  <si>
+    <t>XXL-VLDL-C</t>
+  </si>
+  <si>
+    <t>XXL-VLDL-CE</t>
+  </si>
+  <si>
+    <t>XXL-VLDL-FC</t>
+  </si>
+  <si>
+    <t>XXL-VLDL-TG</t>
+  </si>
+  <si>
+    <t>XL-VLDL-P</t>
+  </si>
+  <si>
+    <t>XL-VLDL-L</t>
+  </si>
+  <si>
+    <t>XL-VLDL-PL</t>
+  </si>
+  <si>
+    <t>XL-VLDL-C</t>
+  </si>
+  <si>
+    <t>XL-VLDL-CE</t>
+  </si>
+  <si>
+    <t>XL-VLDL-FC</t>
+  </si>
+  <si>
+    <t>XL-VLDL-TG</t>
+  </si>
+  <si>
+    <t>L-VLDL-P</t>
+  </si>
+  <si>
+    <t>L-VLDL-L</t>
+  </si>
+  <si>
+    <t>L-VLDL-PL</t>
+  </si>
+  <si>
+    <t>L-VLDL-C</t>
+  </si>
+  <si>
+    <t>L-VLDL-CE</t>
+  </si>
+  <si>
+    <t>L-VLDL-FC</t>
+  </si>
+  <si>
+    <t>L-VLDL-TG</t>
+  </si>
+  <si>
+    <t>M-VLDL-P</t>
+  </si>
+  <si>
+    <t>M-VLDL-L</t>
+  </si>
+  <si>
+    <t>M-VLDL-PL</t>
+  </si>
+  <si>
+    <t>M-VLDL-C</t>
+  </si>
+  <si>
+    <t>M-VLDL-CE</t>
+  </si>
+  <si>
+    <t>M-VLDL-FC</t>
+  </si>
+  <si>
+    <t>M-VLDL-TG</t>
+  </si>
+  <si>
+    <t>S-VLDL-P</t>
+  </si>
+  <si>
+    <t>S-VLDL-L</t>
+  </si>
+  <si>
+    <t>S-VLDL-PL</t>
+  </si>
+  <si>
+    <t>S-VLDL-C</t>
+  </si>
+  <si>
+    <t>S-VLDL-CE</t>
+  </si>
+  <si>
+    <t>S-VLDL-FC</t>
+  </si>
+  <si>
+    <t>S-VLDL-TG</t>
+  </si>
+  <si>
+    <t>XS-VLDL-P</t>
+  </si>
+  <si>
+    <t>XS-VLDL-L</t>
+  </si>
+  <si>
+    <t>XS-VLDL-PL</t>
+  </si>
+  <si>
+    <t>XS-VLDL-C</t>
+  </si>
+  <si>
+    <t>XS-VLDL-CE</t>
+  </si>
+  <si>
+    <t>XS-VLDL-FC</t>
+  </si>
+  <si>
+    <t>XS-VLDL-TG</t>
+  </si>
+  <si>
+    <t>IDL-P</t>
+  </si>
+  <si>
+    <t>IDL-L</t>
+  </si>
+  <si>
+    <t>IDL-PL</t>
+  </si>
+  <si>
+    <t>IDL-C</t>
+  </si>
+  <si>
+    <t>IDL-CE</t>
+  </si>
+  <si>
+    <t>IDL-FC</t>
+  </si>
+  <si>
+    <t>IDL-TG</t>
+  </si>
+  <si>
+    <t>L-LDL-P</t>
+  </si>
+  <si>
+    <t>L-LDL-L</t>
+  </si>
+  <si>
+    <t>L-LDL-PL</t>
+  </si>
+  <si>
+    <t>L-LDL-C</t>
+  </si>
+  <si>
+    <t>L-LDL-CE</t>
+  </si>
+  <si>
+    <t>L-LDL-FC</t>
+  </si>
+  <si>
+    <t>L-LDL-TG</t>
+  </si>
+  <si>
+    <t>M-LDL-P</t>
+  </si>
+  <si>
+    <t>M-LDL-L</t>
+  </si>
+  <si>
+    <t>M-LDL-PL</t>
+  </si>
+  <si>
+    <t>M-LDL-C</t>
+  </si>
+  <si>
+    <t>M-LDL-CE</t>
+  </si>
+  <si>
+    <t>M-LDL-FC</t>
+  </si>
+  <si>
+    <t>M-LDL-TG</t>
+  </si>
+  <si>
+    <t>S-LDL-P</t>
+  </si>
+  <si>
+    <t>S-LDL-L</t>
+  </si>
+  <si>
+    <t>S-LDL-PL</t>
+  </si>
+  <si>
+    <t>S-LDL-C</t>
+  </si>
+  <si>
+    <t>S-LDL-CE</t>
+  </si>
+  <si>
+    <t>S-LDL-FC</t>
+  </si>
+  <si>
+    <t>S-LDL-TG</t>
+  </si>
+  <si>
+    <t>XL-HDL-P</t>
+  </si>
+  <si>
+    <t>XL-HDL-L</t>
+  </si>
+  <si>
+    <t>XL-HDL-PL</t>
+  </si>
+  <si>
+    <t>XL-HDL-C</t>
+  </si>
+  <si>
+    <t>XL-HDL-CE</t>
+  </si>
+  <si>
+    <t>XL-HDL-FC</t>
+  </si>
+  <si>
+    <t>XL-HDL-TG</t>
+  </si>
+  <si>
+    <t>L-HDL-P</t>
+  </si>
+  <si>
+    <t>L-HDL-L</t>
+  </si>
+  <si>
+    <t>L-HDL-PL</t>
+  </si>
+  <si>
+    <t>L-HDL-C</t>
+  </si>
+  <si>
+    <t>L-HDL-CE</t>
+  </si>
+  <si>
+    <t>L-HDL-FC</t>
+  </si>
+  <si>
+    <t>L-HDL-TG</t>
+  </si>
+  <si>
+    <t>M-HDL-P</t>
+  </si>
+  <si>
+    <t>M-HDL-L</t>
+  </si>
+  <si>
+    <t>M-HDL-PL</t>
+  </si>
+  <si>
+    <t>M-HDL-C</t>
+  </si>
+  <si>
+    <t>M-HDL-CE</t>
+  </si>
+  <si>
+    <t>M-HDL-FC</t>
+  </si>
+  <si>
+    <t>M-HDL-TG</t>
+  </si>
+  <si>
+    <t>S-HDL-P</t>
+  </si>
+  <si>
+    <t>S-HDL-L</t>
+  </si>
+  <si>
+    <t>S-HDL-PL</t>
+  </si>
+  <si>
+    <t>S-HDL-C</t>
+  </si>
+  <si>
+    <t>S-HDL-CE</t>
+  </si>
+  <si>
+    <t>S-HDL-FC</t>
+  </si>
+  <si>
+    <t>S-HDL-TG</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Cpeptid</t>
+  </si>
+  <si>
+    <t>LDL size</t>
+  </si>
+  <si>
+    <t>HDL size</t>
+  </si>
+  <si>
+    <t>VLDL size</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1465,2256 +1460,2657 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>119</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
         <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
         <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>6</v>
-      </c>
-      <c r="D113" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B114" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B123" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B132" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="B135" t="s">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="B138" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="B140" t="s">
-        <v>293</v>
+        <v>121</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>128</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B148" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B149" t="s">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="B150" t="s">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="B151" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="B152" t="s">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="B153" t="s">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="B156" t="s">
-        <v>325</v>
+        <v>137</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="B157" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>328</v>
+        <v>270</v>
       </c>
       <c r="B158" t="s">
-        <v>329</v>
+        <v>139</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="B159" t="s">
-        <v>331</v>
+        <v>140</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="B161" t="s">
-        <v>335</v>
+        <v>142</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="B162" t="s">
-        <v>337</v>
+        <v>143</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D162" t="s">
-        <v>143</v>
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E81C7B9-7FBD-BE41-BD0B-8B44560BCEF4}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_list.xlsx
+++ b/Feature_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ll/Documents/GitHub/Joint analysis of static and dynamic metabolomics data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BE2A5-CA0E-E949-855C-A1EFB5A20F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BB1B23-B127-2C45-BDA2-0D3B02080A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="17200" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="340">
   <si>
     <t>Biomarker</t>
   </si>
@@ -1060,6 +1060,18 @@
   </si>
   <si>
     <t>VLDL size</t>
+  </si>
+  <si>
+    <t>pmol/L</t>
+  </si>
+  <si>
+    <t>Hormone</t>
+  </si>
+  <si>
+    <t>C-peptid</t>
+  </si>
+  <si>
+    <t>Peptide</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2866,7 +2878,10 @@
         <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>336</v>
+      </c>
+      <c r="D102" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2874,10 +2889,13 @@
         <v>332</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>336</v>
+      </c>
+      <c r="D103" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">

--- a/Feature_list.xlsx
+++ b/Feature_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ll/Documents/GitHub/Joint analysis of static and dynamic metabolomics data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BB1B23-B127-2C45-BDA2-0D3B02080A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B9EB0-1C23-C148-9551-5B2EDC381C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="17200" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="22760" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
